--- a/scraped_profiles.xlsx
+++ b/scraped_profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -22,7 +22,64 @@
     <t>University</t>
   </si>
   <si>
+    <t>Acceptance Rate</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Degree Type</t>
+  </si>
+  <si>
+    <t>Degree's Country of Origin</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Undergrad GPA</t>
+  </si>
+  <si>
+    <t>GRE General</t>
+  </si>
+  <si>
+    <t>GRE Verbal</t>
+  </si>
+  <si>
+    <t>Analytical Writing</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>985541</t>
+  </si>
+  <si>
+    <t>985521</t>
+  </si>
+  <si>
+    <t>985501</t>
+  </si>
+  <si>
+    <t>985481</t>
+  </si>
+  <si>
+    <t>985461</t>
+  </si>
+  <si>
+    <t>985441</t>
+  </si>
+  <si>
+    <t>985421</t>
   </si>
 </sst>
 </file>
@@ -380,23 +437,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/scraped_profiles.xlsx
+++ b/scraped_profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -67,22 +67,16 @@
     <t>Scraped Timestamp</t>
   </si>
   <si>
-    <t>985546</t>
-  </si>
-  <si>
-    <t>985545</t>
-  </si>
-  <si>
-    <t>985544</t>
-  </si>
-  <si>
-    <t>985543</t>
-  </si>
-  <si>
-    <t>985542</t>
-  </si>
-  <si>
-    <t>985541</t>
+    <t>985426</t>
+  </si>
+  <si>
+    <t>985425</t>
+  </si>
+  <si>
+    <t>985424</t>
+  </si>
+  <si>
+    <t>985423</t>
   </si>
   <si>
     <t>40%</t>
@@ -100,6 +94,78 @@
     <t>41%</t>
   </si>
   <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
     <t>Columbia University</t>
   </si>
   <si>
@@ -115,6 +181,108 @@
     <t>University of Utah</t>
   </si>
   <si>
+    <t>University of Notre Dame</t>
+  </si>
+  <si>
+    <t>Purdue University</t>
+  </si>
+  <si>
+    <t>University of Oklahoma</t>
+  </si>
+  <si>
+    <t>University of Kansas</t>
+  </si>
+  <si>
+    <t>University of Nebraska Medical Center</t>
+  </si>
+  <si>
+    <t>Pratt Institute</t>
+  </si>
+  <si>
+    <t>University of Wisconsin - Madison</t>
+  </si>
+  <si>
+    <t>Colorado School of Mines</t>
+  </si>
+  <si>
+    <t>University College Dublin</t>
+  </si>
+  <si>
+    <t>University of Tennessee, Knoxville</t>
+  </si>
+  <si>
+    <t>University of California, Santa Cruz</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
+  </si>
+  <si>
+    <t>University at Buffalo</t>
+  </si>
+  <si>
+    <t>Stockholm University</t>
+  </si>
+  <si>
+    <t>University of North Carolina at Chapel Hill</t>
+  </si>
+  <si>
+    <t>Athabasca University</t>
+  </si>
+  <si>
+    <t>Monash University</t>
+  </si>
+  <si>
+    <t>Kingston University</t>
+  </si>
+  <si>
+    <t>University of California (UCLA)</t>
+  </si>
+  <si>
+    <t>Colorado State University</t>
+  </si>
+  <si>
+    <t>Oklahoma State University</t>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+  </si>
+  <si>
+    <t>Montclair State University</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology (MIT)</t>
+  </si>
+  <si>
+    <t>The University of Texas at San Antonio</t>
+  </si>
+  <si>
+    <t>University of Ontario Institute Technology</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>New York University</t>
+  </si>
+  <si>
+    <t>University of Alberta</t>
+  </si>
+  <si>
+    <t>University of Maryland, College Park</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>university of california</t>
+  </si>
+  <si>
     <t>Electrical Engineering</t>
   </si>
   <si>
@@ -133,6 +301,102 @@
     <t>Computer Science</t>
   </si>
   <si>
+    <t>Earth and Environmental Engineering</t>
+  </si>
+  <si>
+    <t>Astronomy</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>IGPBS</t>
+  </si>
+  <si>
+    <t>Art History and Library and Information Sciences</t>
+  </si>
+  <si>
+    <t>Industrial Engineering</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Literature &amp; Culture</t>
+  </si>
+  <si>
+    <t>Creative Writing Fiction</t>
+  </si>
+  <si>
+    <t>Biomolecular Engineering &amp; Bioinformatics (BMEB)</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Linguistics</t>
+  </si>
+  <si>
+    <t>Physics And Astronomy</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>counselling psychology</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Asian Languages and Cultures</t>
+  </si>
+  <si>
+    <t>Biomedical Science</t>
+  </si>
+  <si>
+    <t>Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>Clinical Psychology</t>
+  </si>
+  <si>
+    <t>Brain And Cognitive Sciences</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Applied Psychology</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Audiology</t>
+  </si>
+  <si>
+    <t>Library And Information Science</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Electrical And Computer Engineering</t>
+  </si>
+  <si>
+    <t>Data Science and Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
     <t>Masters</t>
   </si>
   <si>
@@ -145,12 +409,21 @@
     <t>MBA</t>
   </si>
   <si>
+    <t>MFA</t>
+  </si>
+  <si>
     <t>Rejected</t>
   </si>
   <si>
     <t>Accepted</t>
   </si>
   <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Wait listed</t>
+  </si>
+  <si>
     <t>27/04/2025</t>
   </si>
   <si>
@@ -163,9 +436,48 @@
     <t>27/10/2024</t>
   </si>
   <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>18/04/2025</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>22/03/2025</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>24/06/2003</t>
+  </si>
+  <si>
     <t>via E-mail</t>
   </si>
   <si>
+    <t>via Postal Service</t>
+  </si>
+  <si>
+    <t>via Website</t>
+  </si>
+  <si>
     <t>strung me along until the last possible second, i guess they were too busy corroborating with ICE</t>
   </si>
   <si>
@@ -175,12 +487,81 @@
     <t>Got accepted to ILCC 3 years PhD program</t>
   </si>
   <si>
+    <t>7 rejections out of 8.</t>
+  </si>
+  <si>
+    <t>Cancer Research single-program. 2 years in industry bacteriology lab post-undergrad before applying to graduate schools.</t>
+  </si>
+  <si>
+    <t>Applied during their rolling basis deadline.</t>
+  </si>
+  <si>
+    <t>Received a scholarship totaling about $6,200 after conversion from Euros</t>
+  </si>
+  <si>
+    <t>Rejected off the waitlist. Congrats to everyone who got in!</t>
+  </si>
+  <si>
+    <t>Interviewed, no notification until the 24th of April, did not respond to any email... tough season, I know they reduced the cohort by a lot, a lot of professors I was interested in will not take any students.</t>
+  </si>
+  <si>
+    <t>Research track</t>
+  </si>
+  <si>
+    <t>3.95 MA GPA. Already accepted somewhere else, but glad I got all the pending apps done now. 2a/2w/19r/0p</t>
+  </si>
+  <si>
+    <t>sent an email to the university to inquire after waiting for four months without any response</t>
+  </si>
+  <si>
+    <t>Canadian applicant</t>
+  </si>
+  <si>
+    <t>Was told that I was originally put on the acceptance list in early Feb. After an unexpected one-month wait, they finally told me that the whole Chinese cohort was not able to admit any student because of the federal funding cut. I guess this is the same for the whole Asian studies department, with only a few advisors having their own external funding could possibly admit PhDs.</t>
+  </si>
+  <si>
+    <t>Please who has gotten a decision from OSU MAE program</t>
+  </si>
+  <si>
+    <t>Canadian applicant, 3.8 gpa, 2 industry internships, 1 CV paper.</t>
+  </si>
+  <si>
+    <t>Forensic concentration. Interviewed on 04/03.</t>
+  </si>
+  <si>
+    <t>3.9 in MS</t>
+  </si>
+  <si>
+    <t>Ignore the waitlist. Have any American applicants received their decisions?</t>
+  </si>
+  <si>
+    <t>IIT Kharagpur (Dept of Ocean Engineering and Naval Architecture), CGPA 7.95, IELTS 8.5, GRE 326(170Q), 2 Foreign Research Interns, 3 Other Interns, No Papers, Couple of Media Features, got accepted into UCL Emerging Digital Technologies Program</t>
+  </si>
+  <si>
+    <t>Accepted from WL</t>
+  </si>
+  <si>
+    <t>nontrad student with computer science background</t>
+  </si>
+  <si>
+    <t>Domestic applicant, u of a undergraduate student</t>
+  </si>
+  <si>
+    <t>OK JHU this is so late</t>
+  </si>
+  <si>
+    <t>with 4.5 years of work experience, 318 GRE, IELTS 8. Accepted in Round 3</t>
+  </si>
+  <si>
     <t>Rejection</t>
   </si>
   <si>
     <t>Acceptance</t>
   </si>
   <si>
+    <t>Waitlist</t>
+  </si>
+  <si>
     <t>Apr 27</t>
   </si>
   <si>
@@ -191,6 +572,39 @@
   </si>
   <si>
     <t>Oct 27</t>
+  </si>
+  <si>
+    <t>Apr 17</t>
+  </si>
+  <si>
+    <t>Apr 18</t>
+  </si>
+  <si>
+    <t>Apr 24</t>
+  </si>
+  <si>
+    <t>Apr 23</t>
+  </si>
+  <si>
+    <t>Mar 27</t>
+  </si>
+  <si>
+    <t>Mar 12</t>
+  </si>
+  <si>
+    <t>Jan 24</t>
+  </si>
+  <si>
+    <t>Mar 22</t>
+  </si>
+  <si>
+    <t>Apr 21</t>
+  </si>
+  <si>
+    <t>Apr 15</t>
+  </si>
+  <si>
+    <t>Jun 24</t>
   </si>
 </sst>
 </file>
@@ -552,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,246 +1026,2540 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2">
+        <v>985546</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>45774.56926642361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>985545</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>45774.56926642911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="2">
-        <v>45774.56926642911</v>
+        <v>45774.56926642361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4">
+        <v>985544</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="J4">
         <v>3.98</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="O4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>45774.56926642361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>985543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>45774.56926642361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>985542</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="P4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>45774.56926642911</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>45774.56926642911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="J6">
         <v>3.84</v>
       </c>
       <c r="O6" t="s">
+        <v>180</v>
+      </c>
+      <c r="P6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>45774.56926642361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>985541</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="P6" t="s">
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>45774.56926642361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>985546</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" t="s">
+        <v>154</v>
+      </c>
+      <c r="O8" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>45774.5775835301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>985545</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>45774.5775835301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>985544</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10">
+        <v>3.98</v>
+      </c>
+      <c r="N10" t="s">
+        <v>155</v>
+      </c>
+      <c r="O10" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>45774.5775835301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>985543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>45774.5775835301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>985542</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12">
+        <v>3.84</v>
+      </c>
+      <c r="O12" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>45774.5775835301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>985541</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>45774.5775835301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>985546</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>45774.58077224537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>985545</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>45774.58077224537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>985544</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16">
+        <v>3.98</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>45774.58077224537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>985543</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>180</v>
+      </c>
+      <c r="P17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>45774.58077224537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>985542</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18">
+        <v>3.84</v>
+      </c>
+      <c r="O18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>45774.58077224537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>985541</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>179</v>
+      </c>
+      <c r="P19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>45774.58121126157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>985506</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s">
+        <v>179</v>
+      </c>
+      <c r="P20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>45774.58201672454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>985505</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>45774.58201672454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>985504</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" t="s">
+        <v>179</v>
+      </c>
+      <c r="P22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>45774.58201672454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>985503</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="2">
-        <v>45774.56926642911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>45774.58201672454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>985502</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24">
+        <v>3.76</v>
+      </c>
+      <c r="N24" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" t="s">
+        <v>180</v>
+      </c>
+      <c r="P24" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>45774.58201672454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>985501</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25">
+        <v>3.37</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>45774.58234871528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>985500</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26">
+        <v>3.63</v>
+      </c>
+      <c r="K26">
+        <v>167</v>
+      </c>
+      <c r="L26">
+        <v>169</v>
+      </c>
+      <c r="M26">
+        <v>4.5</v>
+      </c>
+      <c r="O26" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>45774.58234871528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>985499</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27">
+        <v>3.16</v>
+      </c>
+      <c r="O27" t="s">
+        <v>179</v>
+      </c>
+      <c r="P27" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>45774.58234871528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>985498</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28">
+        <v>3.55</v>
+      </c>
+      <c r="N28" t="s">
+        <v>160</v>
+      </c>
+      <c r="O28" t="s">
+        <v>180</v>
+      </c>
+      <c r="P28" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>45774.58234871528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>985497</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29">
+        <v>3.9</v>
+      </c>
+      <c r="N29" t="s">
+        <v>161</v>
+      </c>
+      <c r="O29" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>45774.58234871528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>985496</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" t="s">
+        <v>153</v>
+      </c>
+      <c r="N30" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>45774.58268099537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>985495</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31">
+        <v>3.74</v>
+      </c>
+      <c r="O31" t="s">
+        <v>179</v>
+      </c>
+      <c r="P31" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>45774.58268099537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>985494</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32">
+        <v>3.52</v>
+      </c>
+      <c r="K32">
+        <v>329</v>
+      </c>
+      <c r="L32">
+        <v>159</v>
+      </c>
+      <c r="M32">
+        <v>4.5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O32" t="s">
+        <v>179</v>
+      </c>
+      <c r="P32" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>45774.58268099537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>985493</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33">
+        <v>3.67</v>
+      </c>
+      <c r="N33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" t="s">
+        <v>179</v>
+      </c>
+      <c r="P33" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>45774.58268099537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>985492</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" t="s">
+        <v>151</v>
+      </c>
+      <c r="N34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O34" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>45774.58268099537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>985491</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" t="s">
+        <v>151</v>
+      </c>
+      <c r="O35" t="s">
+        <v>179</v>
+      </c>
+      <c r="P35" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>45774.58301372685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>985490</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" t="s">
+        <v>179</v>
+      </c>
+      <c r="P36" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>45774.58301372685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>985489</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37">
+        <v>3.4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>45774.58301372685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>985488</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" t="s">
+        <v>151</v>
+      </c>
+      <c r="N38" t="s">
+        <v>166</v>
+      </c>
+      <c r="O38" t="s">
+        <v>180</v>
+      </c>
+      <c r="P38" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>45774.58301372685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>985487</v>
+      </c>
+      <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" t="s">
+        <v>151</v>
+      </c>
+      <c r="O39" t="s">
+        <v>179</v>
+      </c>
+      <c r="P39" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>45774.58301372685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>985486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" t="s">
+        <v>151</v>
+      </c>
+      <c r="J40">
+        <v>3.86</v>
+      </c>
+      <c r="O40" t="s">
+        <v>179</v>
+      </c>
+      <c r="P40" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>45774.5833975463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>985485</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" t="s">
+        <v>151</v>
+      </c>
+      <c r="O41" t="s">
+        <v>179</v>
+      </c>
+      <c r="P41" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>45774.5833975463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>985484</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O42" t="s">
+        <v>179</v>
+      </c>
+      <c r="P42" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>45774.5833975463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>985483</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" t="s">
+        <v>151</v>
+      </c>
+      <c r="N43" t="s">
+        <v>167</v>
+      </c>
+      <c r="O43" t="s">
+        <v>179</v>
+      </c>
+      <c r="P43" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>45774.5833975463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>985482</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="H7" t="s">
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" t="s">
+        <v>151</v>
+      </c>
+      <c r="O44" t="s">
+        <v>179</v>
+      </c>
+      <c r="P44" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>45774.5833975463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>985481</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" t="s">
+        <v>151</v>
+      </c>
+      <c r="J45">
+        <v>3.13</v>
+      </c>
+      <c r="N45" t="s">
+        <v>168</v>
+      </c>
+      <c r="O45" t="s">
+        <v>134</v>
+      </c>
+      <c r="P45" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>45774.58372594907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>985480</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46">
+        <v>3.8</v>
+      </c>
+      <c r="N46" t="s">
+        <v>169</v>
+      </c>
+      <c r="O46" t="s">
+        <v>179</v>
+      </c>
+      <c r="P46" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>45774.58372594907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>985479</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>170</v>
+      </c>
+      <c r="O47" t="s">
+        <v>180</v>
+      </c>
+      <c r="P47" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>45774.58372594907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>985478</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O48" t="s">
+        <v>180</v>
+      </c>
+      <c r="P48" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>45774.58372594907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>985477</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49">
+        <v>3.65</v>
+      </c>
+      <c r="N49" t="s">
+        <v>171</v>
+      </c>
+      <c r="O49" t="s">
+        <v>179</v>
+      </c>
+      <c r="P49" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>45774.58372594907</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>985476</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50">
+        <v>3.7</v>
+      </c>
+      <c r="O50" t="s">
+        <v>180</v>
+      </c>
+      <c r="P50" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>45774.58406451389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>985475</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+      <c r="I51" t="s">
+        <v>151</v>
+      </c>
+      <c r="O51" t="s">
+        <v>180</v>
+      </c>
+      <c r="P51" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>45774.58406451389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>985474</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" t="s">
+        <v>151</v>
+      </c>
+      <c r="J52">
+        <v>4.33</v>
+      </c>
+      <c r="O52" t="s">
+        <v>179</v>
+      </c>
+      <c r="P52" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>45774.58406451389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>985473</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N53" t="s">
+        <v>172</v>
+      </c>
+      <c r="O53" t="s">
+        <v>181</v>
+      </c>
+      <c r="P53" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>45774.58406451389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>985472</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I54" t="s">
+        <v>151</v>
+      </c>
+      <c r="J54">
+        <v>3.18</v>
+      </c>
+      <c r="K54">
+        <v>326</v>
+      </c>
+      <c r="L54">
+        <v>156</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>173</v>
+      </c>
+      <c r="O54" t="s">
+        <v>180</v>
+      </c>
+      <c r="P54" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>45774.58406451389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>985471</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" t="s">
+        <v>151</v>
+      </c>
+      <c r="N55" t="s">
+        <v>174</v>
+      </c>
+      <c r="O55" t="s">
+        <v>180</v>
+      </c>
+      <c r="P55" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>45774.58457131944</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>985470</v>
+      </c>
+      <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" t="s">
+        <v>151</v>
+      </c>
+      <c r="J56">
+        <v>3.86</v>
+      </c>
+      <c r="N56" t="s">
+        <v>175</v>
+      </c>
+      <c r="O56" t="s">
+        <v>180</v>
+      </c>
+      <c r="P56" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>45774.58457131944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>985466</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" t="s">
+        <v>142</v>
+      </c>
+      <c r="I57" t="s">
+        <v>151</v>
+      </c>
+      <c r="J57">
+        <v>3.2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>176</v>
+      </c>
+      <c r="O57" t="s">
+        <v>179</v>
+      </c>
+      <c r="P57" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>45774.5850725463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>985446</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" t="s">
+        <v>148</v>
+      </c>
+      <c r="I58" t="s">
+        <v>152</v>
+      </c>
+      <c r="N58" t="s">
+        <v>177</v>
+      </c>
+      <c r="O58" t="s">
+        <v>179</v>
+      </c>
+      <c r="P58" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>45774.58556559028</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" t="s">
+        <v>142</v>
+      </c>
+      <c r="I59" t="s">
+        <v>151</v>
+      </c>
+      <c r="J59">
+        <v>3.52</v>
+      </c>
+      <c r="O59" t="s">
+        <v>179</v>
+      </c>
+      <c r="P59" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>45774.58627080244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
         <v>49</v>
       </c>
-      <c r="O7" t="s">
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60" t="s">
+        <v>151</v>
+      </c>
+      <c r="J60">
+        <v>3.3</v>
+      </c>
+      <c r="K60">
+        <v>315</v>
+      </c>
+      <c r="O60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P60" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>45774.58627080244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H61" t="s">
+        <v>150</v>
+      </c>
+      <c r="I61" t="s">
+        <v>151</v>
+      </c>
+      <c r="J61">
+        <v>3.3</v>
+      </c>
+      <c r="K61">
+        <v>315</v>
+      </c>
+      <c r="O61" t="s">
+        <v>181</v>
+      </c>
+      <c r="P61" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>45774.58627080244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>45774.56926642911</v>
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62">
+        <v>3.84</v>
+      </c>
+      <c r="K62">
+        <v>318</v>
+      </c>
+      <c r="N62" t="s">
+        <v>178</v>
+      </c>
+      <c r="O62" t="s">
+        <v>180</v>
+      </c>
+      <c r="P62" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>45774.58627080244</v>
       </c>
     </row>
   </sheetData>

--- a/scraped_profiles.xlsx
+++ b/scraped_profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -67,16 +67,19 @@
     <t>Scraped Timestamp</t>
   </si>
   <si>
-    <t>985426</t>
-  </si>
-  <si>
-    <t>985425</t>
-  </si>
-  <si>
-    <t>985424</t>
-  </si>
-  <si>
-    <t>985423</t>
+    <t>985387</t>
+  </si>
+  <si>
+    <t>985386</t>
+  </si>
+  <si>
+    <t>985385</t>
+  </si>
+  <si>
+    <t>985384</t>
+  </si>
+  <si>
+    <t>985383</t>
   </si>
   <si>
     <t>40%</t>
@@ -166,6 +169,12 @@
     <t>30%</t>
   </si>
   <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
     <t>Columbia University</t>
   </si>
   <si>
@@ -283,6 +292,30 @@
     <t>university of california</t>
   </si>
   <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>University of Hawaii at Manoa</t>
+  </si>
+  <si>
+    <t>Cambridge University</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>University of Missouri - Saint Louis</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>Florida State University</t>
+  </si>
+  <si>
     <t>Electrical Engineering</t>
   </si>
   <si>
@@ -397,6 +430,18 @@
     <t>Finance</t>
   </si>
   <si>
+    <t>Planning, Growth, and Regeneration</t>
+  </si>
+  <si>
+    <t>Folklore</t>
+  </si>
+  <si>
+    <t>Bioengineering</t>
+  </si>
+  <si>
+    <t>Biostatistics</t>
+  </si>
+  <si>
     <t>Masters</t>
   </si>
   <si>
@@ -469,6 +514,9 @@
     <t>24/06/2003</t>
   </si>
   <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
     <t>via E-mail</t>
   </si>
   <si>
@@ -478,6 +526,9 @@
     <t>via Website</t>
   </si>
   <si>
+    <t>via Other</t>
+  </si>
+  <si>
     <t>strung me along until the last possible second, i guess they were too busy corroborating with ICE</t>
   </si>
   <si>
@@ -553,6 +604,21 @@
     <t>with 4.5 years of work experience, 318 GRE, IELTS 8. Accepted in Round 3</t>
   </si>
   <si>
+    <t>Since I hadn't heard anything since my application was under review, I sent an email to the chair of the math department. He responded within a few hours saying I will not be offered a position. This school was the last chance for me, so I will (probably) try again next year... Maybe funding will be less uncertain? No GRE, but I have a MS in math (GPA 3.16). Had emailed with potential advisor. I thought it would be a good fit.</t>
+  </si>
+  <si>
+    <t>I applied in December and didn't hear back til April 23rd... so I had figured it was a rejection. Still disappointing</t>
+  </si>
+  <si>
+    <t>Email from DCT</t>
+  </si>
+  <si>
+    <t>Emailed to express continued interest, received response that no further offers will be made this year</t>
+  </si>
+  <si>
+    <t>Late decision. No funding, admitted as a self-supported student...</t>
+  </si>
+  <si>
     <t>Rejection</t>
   </si>
   <si>
@@ -605,6 +671,9 @@
   </si>
   <si>
     <t>Jun 24</t>
+  </si>
+  <si>
+    <t>Apr 11</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,37 +1099,37 @@
         <v>985546</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="O2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="2">
         <v>45774.56926642361</v>
@@ -1071,34 +1140,34 @@
         <v>985545</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O3" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="2">
         <v>45774.56926642361</v>
@@ -1109,40 +1178,40 @@
         <v>985544</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J4">
         <v>3.98</v>
       </c>
       <c r="N4" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O4" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="2">
         <v>45774.56926642361</v>
@@ -1153,37 +1222,37 @@
         <v>985543</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O5" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="2">
         <v>45774.56926642361</v>
@@ -1194,37 +1263,37 @@
         <v>985542</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J6">
         <v>3.84</v>
       </c>
       <c r="O6" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="2">
         <v>45774.56926642361</v>
@@ -1235,34 +1304,34 @@
         <v>985541</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O7" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="2">
         <v>45774.56926642361</v>
@@ -1273,37 +1342,37 @@
         <v>985546</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N8" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="O8" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="2">
         <v>45774.5775835301</v>
@@ -1314,34 +1383,34 @@
         <v>985545</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O9" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="2">
         <v>45774.5775835301</v>
@@ -1352,40 +1421,40 @@
         <v>985544</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J10">
         <v>3.98</v>
       </c>
       <c r="N10" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O10" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="2">
         <v>45774.5775835301</v>
@@ -1396,37 +1465,37 @@
         <v>985543</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O11" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="2">
         <v>45774.5775835301</v>
@@ -1437,37 +1506,37 @@
         <v>985542</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="I12" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J12">
         <v>3.84</v>
       </c>
       <c r="O12" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="2">
         <v>45774.5775835301</v>
@@ -1478,34 +1547,34 @@
         <v>985541</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O13" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="2">
         <v>45774.5775835301</v>
@@ -1516,37 +1585,37 @@
         <v>985546</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="2">
         <v>45774.58077224537</v>
@@ -1557,34 +1626,34 @@
         <v>985545</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="Q15" s="2">
         <v>45774.58077224537</v>
@@ -1595,40 +1664,40 @@
         <v>985544</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J16">
         <v>3.98</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="2">
         <v>45774.58077224537</v>
@@ -1639,37 +1708,37 @@
         <v>985543</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="2">
         <v>45774.58077224537</v>
@@ -1680,37 +1749,37 @@
         <v>985542</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J18">
         <v>3.84</v>
       </c>
       <c r="O18" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="2">
         <v>45774.58077224537</v>
@@ -1721,34 +1790,34 @@
         <v>985541</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="2">
         <v>45774.58121126157</v>
@@ -1759,34 +1828,34 @@
         <v>985506</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="2">
         <v>45774.58201672454</v>
@@ -1797,34 +1866,34 @@
         <v>985505</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q21" s="2">
         <v>45774.58201672454</v>
@@ -1835,34 +1904,34 @@
         <v>985504</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="2">
         <v>45774.58201672454</v>
@@ -1873,37 +1942,37 @@
         <v>985503</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="2">
         <v>45774.58201672454</v>
@@ -1914,40 +1983,40 @@
         <v>985502</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J24">
         <v>3.76</v>
       </c>
       <c r="N24" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="2">
         <v>45774.58201672454</v>
@@ -1958,40 +2027,40 @@
         <v>985501</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J25">
         <v>3.37</v>
       </c>
       <c r="N25" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O25" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="2">
         <v>45774.58234871528</v>
@@ -2002,28 +2071,28 @@
         <v>985500</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J26">
         <v>3.63</v>
@@ -2038,10 +2107,10 @@
         <v>4.5</v>
       </c>
       <c r="O26" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="2">
         <v>45774.58234871528</v>
@@ -2052,37 +2121,37 @@
         <v>985499</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J27">
         <v>3.16</v>
       </c>
       <c r="O27" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q27" s="2">
         <v>45774.58234871528</v>
@@ -2093,40 +2162,40 @@
         <v>985498</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J28">
         <v>3.55</v>
       </c>
       <c r="N28" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O28" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="2">
         <v>45774.58234871528</v>
@@ -2137,40 +2206,40 @@
         <v>985497</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J29">
         <v>3.9</v>
       </c>
       <c r="N29" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O29" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="2">
         <v>45774.58234871528</v>
@@ -2181,37 +2250,37 @@
         <v>985496</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N30" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="O30" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="2">
         <v>45774.58268099537</v>
@@ -2222,37 +2291,37 @@
         <v>985495</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J31">
         <v>3.74</v>
       </c>
       <c r="O31" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="2">
         <v>45774.58268099537</v>
@@ -2263,28 +2332,28 @@
         <v>985494</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H32" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I32" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J32">
         <v>3.52</v>
@@ -2299,13 +2368,13 @@
         <v>4.5</v>
       </c>
       <c r="N32" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O32" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="2">
         <v>45774.58268099537</v>
@@ -2316,40 +2385,40 @@
         <v>985493</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I33" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J33">
         <v>3.67</v>
       </c>
       <c r="N33" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O33" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q33" s="2">
         <v>45774.58268099537</v>
@@ -2360,37 +2429,37 @@
         <v>985492</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H34" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N34" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O34" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="2">
         <v>45774.58268099537</v>
@@ -2401,34 +2470,34 @@
         <v>985491</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O35" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="2">
         <v>45774.58301372685</v>
@@ -2439,34 +2508,34 @@
         <v>985490</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I36" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O36" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="2">
         <v>45774.58301372685</v>
@@ -2477,37 +2546,37 @@
         <v>985489</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I37" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J37">
         <v>3.4</v>
       </c>
       <c r="O37" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="2">
         <v>45774.58301372685</v>
@@ -2518,37 +2587,37 @@
         <v>985488</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N38" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O38" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q38" s="2">
         <v>45774.58301372685</v>
@@ -2559,34 +2628,34 @@
         <v>985487</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O39" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q39" s="2">
         <v>45774.58301372685</v>
@@ -2597,37 +2666,37 @@
         <v>985486</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H40" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J40">
         <v>3.86</v>
       </c>
       <c r="O40" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q40" s="2">
         <v>45774.5833975463</v>
@@ -2638,34 +2707,34 @@
         <v>985485</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O41" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q41" s="2">
         <v>45774.5833975463</v>
@@ -2676,34 +2745,34 @@
         <v>985484</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I42" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O42" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q42" s="2">
         <v>45774.5833975463</v>
@@ -2714,37 +2783,37 @@
         <v>985483</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="I43" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N43" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O43" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="Q43" s="2">
         <v>45774.5833975463</v>
@@ -2755,34 +2824,34 @@
         <v>985482</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H44" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I44" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O44" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q44" s="2">
         <v>45774.5833975463</v>
@@ -2793,40 +2862,40 @@
         <v>985481</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J45">
         <v>3.13</v>
       </c>
       <c r="N45" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O45" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="Q45" s="2">
         <v>45774.58372594907</v>
@@ -2837,40 +2906,40 @@
         <v>985480</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J46">
         <v>3.8</v>
       </c>
       <c r="N46" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O46" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q46" s="2">
         <v>45774.58372594907</v>
@@ -2881,40 +2950,40 @@
         <v>985479</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="I47" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J47">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="O47" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="Q47" s="2">
         <v>45774.58372594907</v>
@@ -2925,34 +2994,34 @@
         <v>985478</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="I48" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O48" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="Q48" s="2">
         <v>45774.58372594907</v>
@@ -2963,40 +3032,40 @@
         <v>985477</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J49">
         <v>3.65</v>
       </c>
       <c r="N49" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O49" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q49" s="2">
         <v>45774.58372594907</v>
@@ -3007,37 +3076,37 @@
         <v>985476</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I50" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J50">
         <v>3.7</v>
       </c>
       <c r="O50" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q50" s="2">
         <v>45774.58406451389</v>
@@ -3048,34 +3117,34 @@
         <v>985475</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O51" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="Q51" s="2">
         <v>45774.58406451389</v>
@@ -3086,37 +3155,37 @@
         <v>985474</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H52" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I52" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J52">
         <v>4.33</v>
       </c>
       <c r="O52" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q52" s="2">
         <v>45774.58406451389</v>
@@ -3127,37 +3196,37 @@
         <v>985473</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H53" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I53" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N53" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O53" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q53" s="2">
         <v>45774.58406451389</v>
@@ -3168,28 +3237,28 @@
         <v>985472</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="I54" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J54">
         <v>3.18</v>
@@ -3204,13 +3273,13 @@
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O54" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="Q54" s="2">
         <v>45774.58406451389</v>
@@ -3221,37 +3290,37 @@
         <v>985471</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H55" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="I55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N55" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O55" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Q55" s="2">
         <v>45774.58457131944</v>
@@ -3262,40 +3331,40 @@
         <v>985470</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F56" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H56" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J56">
         <v>3.86</v>
       </c>
       <c r="N56" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O56" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q56" s="2">
         <v>45774.58457131944</v>
@@ -3306,40 +3375,40 @@
         <v>985466</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F57" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G57" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H57" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J57">
         <v>3.2</v>
       </c>
       <c r="N57" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O57" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q57" s="2">
         <v>45774.5850725463</v>
@@ -3350,110 +3419,110 @@
         <v>985446</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="I58" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="N58" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="O58" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="Q58" s="2">
         <v>45774.58556559028</v>
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" t="s">
-        <v>17</v>
+      <c r="A59">
+        <v>985426</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H59" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I59" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J59">
         <v>3.52</v>
       </c>
       <c r="O59" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q59" s="2">
-        <v>45774.58627080244</v>
+        <v>45774.58627079861</v>
       </c>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" t="s">
-        <v>18</v>
+      <c r="A60">
+        <v>985425</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H60" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I60" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J60">
         <v>3.3</v>
@@ -3462,42 +3531,42 @@
         <v>315</v>
       </c>
       <c r="O60" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q60" s="2">
-        <v>45774.58627080244</v>
+        <v>45774.58627079861</v>
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" t="s">
-        <v>19</v>
+      <c r="A61">
+        <v>985424</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G61" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H61" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J61">
         <v>3.3</v>
@@ -3506,42 +3575,42 @@
         <v>315</v>
       </c>
       <c r="O61" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Q61" s="2">
-        <v>45774.58627080244</v>
+        <v>45774.58627079861</v>
       </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" t="s">
-        <v>20</v>
+      <c r="A62">
+        <v>985423</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H62" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I62" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J62">
         <v>3.84</v>
@@ -3550,16 +3619,2269 @@
         <v>318</v>
       </c>
       <c r="N62" t="s">
+        <v>195</v>
+      </c>
+      <c r="O62" t="s">
+        <v>202</v>
+      </c>
+      <c r="P62" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>45774.58627079861</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>985546</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I63" t="s">
+        <v>167</v>
+      </c>
+      <c r="N63" t="s">
+        <v>171</v>
+      </c>
+      <c r="O63" t="s">
+        <v>201</v>
+      </c>
+      <c r="P63" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>45774.59742660879</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>985545</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" t="s">
+        <v>167</v>
+      </c>
+      <c r="O64" t="s">
+        <v>201</v>
+      </c>
+      <c r="P64" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>45774.59742660879</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>985544</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65" t="s">
+        <v>167</v>
+      </c>
+      <c r="J65">
+        <v>3.98</v>
+      </c>
+      <c r="N65" t="s">
+        <v>172</v>
+      </c>
+      <c r="O65" t="s">
+        <v>201</v>
+      </c>
+      <c r="P65" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>45774.59742660879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
+        <v>985543</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" t="s">
+        <v>148</v>
+      </c>
+      <c r="H66" t="s">
+        <v>153</v>
+      </c>
+      <c r="I66" t="s">
+        <v>167</v>
+      </c>
+      <c r="N66" t="s">
+        <v>173</v>
+      </c>
+      <c r="O66" t="s">
+        <v>202</v>
+      </c>
+      <c r="P66" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>45774.59742660879</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67">
+        <v>985542</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" t="s">
+        <v>154</v>
+      </c>
+      <c r="I67" t="s">
+        <v>167</v>
+      </c>
+      <c r="J67">
+        <v>3.84</v>
+      </c>
+      <c r="O67" t="s">
+        <v>202</v>
+      </c>
+      <c r="P67" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>45774.59742660879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>985541</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" t="s">
+        <v>153</v>
+      </c>
+      <c r="I68" t="s">
+        <v>167</v>
+      </c>
+      <c r="O68" t="s">
+        <v>201</v>
+      </c>
+      <c r="P68" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>45774.59786210648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69">
+        <v>985506</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" t="s">
+        <v>155</v>
+      </c>
+      <c r="I69" t="s">
+        <v>167</v>
+      </c>
+      <c r="O69" t="s">
+        <v>201</v>
+      </c>
+      <c r="P69" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>45774.59869635417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70">
+        <v>985505</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" t="s">
+        <v>147</v>
+      </c>
+      <c r="H70" t="s">
+        <v>153</v>
+      </c>
+      <c r="I70" t="s">
+        <v>168</v>
+      </c>
+      <c r="O70" t="s">
+        <v>201</v>
+      </c>
+      <c r="P70" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>45774.59869635417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71">
+        <v>985504</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71" t="s">
+        <v>167</v>
+      </c>
+      <c r="O71" t="s">
+        <v>201</v>
+      </c>
+      <c r="P71" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>45774.59869635417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72">
+        <v>985503</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" t="s">
+        <v>167</v>
+      </c>
+      <c r="N72" t="s">
+        <v>174</v>
+      </c>
+      <c r="O72" t="s">
+        <v>201</v>
+      </c>
+      <c r="P72" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>45774.59869635417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73">
+        <v>985502</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" t="s">
+        <v>148</v>
+      </c>
+      <c r="H73" t="s">
+        <v>156</v>
+      </c>
+      <c r="I73" t="s">
+        <v>167</v>
+      </c>
+      <c r="J73">
+        <v>3.76</v>
+      </c>
+      <c r="N73" t="s">
+        <v>175</v>
+      </c>
+      <c r="O73" t="s">
+        <v>202</v>
+      </c>
+      <c r="P73" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>45774.59869635417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74">
+        <v>985501</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" t="s">
+        <v>148</v>
+      </c>
+      <c r="H74" t="s">
+        <v>153</v>
+      </c>
+      <c r="I74" t="s">
+        <v>167</v>
+      </c>
+      <c r="J74">
+        <v>3.37</v>
+      </c>
+      <c r="N74" t="s">
+        <v>176</v>
+      </c>
+      <c r="O74" t="s">
+        <v>202</v>
+      </c>
+      <c r="P74" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>45774.59903528935</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75">
+        <v>985500</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" t="s">
+        <v>153</v>
+      </c>
+      <c r="I75" t="s">
+        <v>167</v>
+      </c>
+      <c r="J75">
+        <v>3.63</v>
+      </c>
+      <c r="K75">
+        <v>167</v>
+      </c>
+      <c r="L75">
+        <v>169</v>
+      </c>
+      <c r="M75">
+        <v>4.5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>201</v>
+      </c>
+      <c r="P75" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>45774.59903528935</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76">
+        <v>985499</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" t="s">
+        <v>167</v>
+      </c>
+      <c r="J76">
+        <v>3.16</v>
+      </c>
+      <c r="O76" t="s">
+        <v>201</v>
+      </c>
+      <c r="P76" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>45774.59903528935</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77">
+        <v>985498</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
+        <v>142</v>
+      </c>
+      <c r="G77" t="s">
+        <v>148</v>
+      </c>
+      <c r="H77" t="s">
+        <v>158</v>
+      </c>
+      <c r="I77" t="s">
+        <v>167</v>
+      </c>
+      <c r="J77">
+        <v>3.55</v>
+      </c>
+      <c r="N77" t="s">
+        <v>177</v>
+      </c>
+      <c r="O77" t="s">
+        <v>202</v>
+      </c>
+      <c r="P77" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>45774.59903528935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78">
+        <v>985497</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
+        <v>146</v>
+      </c>
+      <c r="G78" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" t="s">
+        <v>153</v>
+      </c>
+      <c r="I78" t="s">
+        <v>167</v>
+      </c>
+      <c r="J78">
+        <v>3.9</v>
+      </c>
+      <c r="N78" t="s">
         <v>178</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O78" t="s">
+        <v>201</v>
+      </c>
+      <c r="P78" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>45774.59903528935</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79">
+        <v>985496</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" t="s">
+        <v>157</v>
+      </c>
+      <c r="I79" t="s">
+        <v>169</v>
+      </c>
+      <c r="N79" t="s">
+        <v>179</v>
+      </c>
+      <c r="O79" t="s">
+        <v>201</v>
+      </c>
+      <c r="P79" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>45774.59936824074</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80">
+        <v>985495</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" t="s">
+        <v>153</v>
+      </c>
+      <c r="I80" t="s">
+        <v>167</v>
+      </c>
+      <c r="J80">
+        <v>3.74</v>
+      </c>
+      <c r="O80" t="s">
+        <v>201</v>
+      </c>
+      <c r="P80" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>45774.59936824074</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81">
+        <v>985494</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I81" t="s">
+        <v>167</v>
+      </c>
+      <c r="J81">
+        <v>3.52</v>
+      </c>
+      <c r="K81">
+        <v>329</v>
+      </c>
+      <c r="L81">
+        <v>159</v>
+      </c>
+      <c r="M81">
+        <v>4.5</v>
+      </c>
+      <c r="N81" t="s">
         <v>180</v>
       </c>
-      <c r="P62" t="s">
+      <c r="O81" t="s">
+        <v>201</v>
+      </c>
+      <c r="P81" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>45774.59936824074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82">
+        <v>985493</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" t="s">
+        <v>153</v>
+      </c>
+      <c r="I82" t="s">
+        <v>167</v>
+      </c>
+      <c r="J82">
+        <v>3.67</v>
+      </c>
+      <c r="N82" t="s">
+        <v>181</v>
+      </c>
+      <c r="O82" t="s">
+        <v>201</v>
+      </c>
+      <c r="P82" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>45774.59936824074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83">
+        <v>985492</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" t="s">
+        <v>167</v>
+      </c>
+      <c r="N83" t="s">
+        <v>182</v>
+      </c>
+      <c r="O83" t="s">
+        <v>201</v>
+      </c>
+      <c r="P83" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>45774.59936824074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84">
+        <v>985491</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" t="s">
+        <v>147</v>
+      </c>
+      <c r="H84" t="s">
+        <v>153</v>
+      </c>
+      <c r="I84" t="s">
+        <v>167</v>
+      </c>
+      <c r="O84" t="s">
+        <v>201</v>
+      </c>
+      <c r="P84" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>45774.59970517361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85">
+        <v>985490</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" t="s">
+        <v>143</v>
+      </c>
+      <c r="G85" t="s">
+        <v>147</v>
+      </c>
+      <c r="H85" t="s">
+        <v>153</v>
+      </c>
+      <c r="I85" t="s">
+        <v>167</v>
+      </c>
+      <c r="O85" t="s">
+        <v>201</v>
+      </c>
+      <c r="P85" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>45774.59970517361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86">
+        <v>985489</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" t="s">
+        <v>147</v>
+      </c>
+      <c r="H86" t="s">
+        <v>153</v>
+      </c>
+      <c r="I86" t="s">
+        <v>167</v>
+      </c>
+      <c r="J86">
+        <v>3.4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>201</v>
+      </c>
+      <c r="P86" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>45774.59970517361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87">
+        <v>985488</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" t="s">
+        <v>148</v>
+      </c>
+      <c r="H87" t="s">
+        <v>157</v>
+      </c>
+      <c r="I87" t="s">
+        <v>167</v>
+      </c>
+      <c r="N87" t="s">
+        <v>183</v>
+      </c>
+      <c r="O87" t="s">
+        <v>202</v>
+      </c>
+      <c r="P87" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>45774.59970517361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88">
+        <v>985487</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" t="s">
+        <v>147</v>
+      </c>
+      <c r="H88" t="s">
+        <v>153</v>
+      </c>
+      <c r="I88" t="s">
+        <v>167</v>
+      </c>
+      <c r="O88" t="s">
+        <v>201</v>
+      </c>
+      <c r="P88" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>45774.59970517361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89">
+        <v>985486</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" t="s">
+        <v>153</v>
+      </c>
+      <c r="I89" t="s">
+        <v>167</v>
+      </c>
+      <c r="J89">
+        <v>3.86</v>
+      </c>
+      <c r="O89" t="s">
+        <v>201</v>
+      </c>
+      <c r="P89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>45774.60010517361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90">
+        <v>985485</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" t="s">
+        <v>143</v>
+      </c>
+      <c r="F90" t="s">
+        <v>143</v>
+      </c>
+      <c r="G90" t="s">
+        <v>147</v>
+      </c>
+      <c r="H90" t="s">
+        <v>159</v>
+      </c>
+      <c r="I90" t="s">
+        <v>167</v>
+      </c>
+      <c r="O90" t="s">
+        <v>201</v>
+      </c>
+      <c r="P90" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>45774.60010517361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91">
+        <v>985484</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" t="s">
+        <v>143</v>
+      </c>
+      <c r="G91" t="s">
+        <v>147</v>
+      </c>
+      <c r="H91" t="s">
+        <v>157</v>
+      </c>
+      <c r="I91" t="s">
+        <v>167</v>
+      </c>
+      <c r="O91" t="s">
+        <v>201</v>
+      </c>
+      <c r="P91" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>45774.60010517361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92">
+        <v>985483</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" t="s">
+        <v>143</v>
+      </c>
+      <c r="G92" t="s">
+        <v>147</v>
+      </c>
+      <c r="H92" t="s">
+        <v>160</v>
+      </c>
+      <c r="I92" t="s">
+        <v>167</v>
+      </c>
+      <c r="N92" t="s">
+        <v>184</v>
+      </c>
+      <c r="O92" t="s">
+        <v>201</v>
+      </c>
+      <c r="P92" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>45774.60010517361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93">
+        <v>985482</v>
+      </c>
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" t="s">
+        <v>143</v>
+      </c>
+      <c r="G93" t="s">
+        <v>147</v>
+      </c>
+      <c r="H93" t="s">
+        <v>153</v>
+      </c>
+      <c r="I93" t="s">
+        <v>167</v>
+      </c>
+      <c r="O93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P93" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>45774.60010517361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94">
+        <v>985481</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" t="s">
+        <v>142</v>
+      </c>
+      <c r="F94" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" t="s">
+        <v>161</v>
+      </c>
+      <c r="I94" t="s">
+        <v>167</v>
+      </c>
+      <c r="J94">
+        <v>3.13</v>
+      </c>
+      <c r="N94" t="s">
+        <v>185</v>
+      </c>
+      <c r="O94" t="s">
+        <v>149</v>
+      </c>
+      <c r="P94" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>45774.60043842593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95">
+        <v>985480</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" t="s">
+        <v>142</v>
+      </c>
+      <c r="G95" t="s">
+        <v>147</v>
+      </c>
+      <c r="H95" t="s">
+        <v>157</v>
+      </c>
+      <c r="I95" t="s">
+        <v>167</v>
+      </c>
+      <c r="J95">
+        <v>3.8</v>
+      </c>
+      <c r="N95" t="s">
+        <v>186</v>
+      </c>
+      <c r="O95" t="s">
+        <v>201</v>
+      </c>
+      <c r="P95" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>45774.60043842593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96">
+        <v>985479</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" t="s">
+        <v>142</v>
+      </c>
+      <c r="G96" t="s">
+        <v>148</v>
+      </c>
+      <c r="H96" t="s">
+        <v>158</v>
+      </c>
+      <c r="I96" t="s">
+        <v>167</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>187</v>
+      </c>
+      <c r="O96" t="s">
+        <v>202</v>
+      </c>
+      <c r="P96" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>45774.60043842593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97">
+        <v>985478</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" t="s">
+        <v>143</v>
+      </c>
+      <c r="G97" t="s">
+        <v>148</v>
+      </c>
+      <c r="H97" t="s">
+        <v>162</v>
+      </c>
+      <c r="I97" t="s">
+        <v>167</v>
+      </c>
+      <c r="O97" t="s">
+        <v>202</v>
+      </c>
+      <c r="P97" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>45774.60043842593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98">
+        <v>985477</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" t="s">
+        <v>143</v>
+      </c>
+      <c r="G98" t="s">
+        <v>147</v>
+      </c>
+      <c r="H98" t="s">
+        <v>157</v>
+      </c>
+      <c r="I98" t="s">
+        <v>167</v>
+      </c>
+      <c r="J98">
+        <v>3.65</v>
+      </c>
+      <c r="N98" t="s">
         <v>188</v>
       </c>
-      <c r="Q62" s="2">
-        <v>45774.58627080244</v>
+      <c r="O98" t="s">
+        <v>201</v>
+      </c>
+      <c r="P98" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>45774.60043842593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99">
+        <v>985476</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" t="s">
+        <v>142</v>
+      </c>
+      <c r="F99" t="s">
+        <v>142</v>
+      </c>
+      <c r="G99" t="s">
+        <v>148</v>
+      </c>
+      <c r="H99" t="s">
+        <v>157</v>
+      </c>
+      <c r="I99" t="s">
+        <v>167</v>
+      </c>
+      <c r="J99">
+        <v>3.7</v>
+      </c>
+      <c r="O99" t="s">
+        <v>202</v>
+      </c>
+      <c r="P99" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>45774.60076377315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100">
+        <v>985475</v>
+      </c>
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" t="s">
+        <v>142</v>
+      </c>
+      <c r="G100" t="s">
+        <v>148</v>
+      </c>
+      <c r="H100" t="s">
+        <v>163</v>
+      </c>
+      <c r="I100" t="s">
+        <v>167</v>
+      </c>
+      <c r="O100" t="s">
+        <v>202</v>
+      </c>
+      <c r="P100" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>45774.60076377315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101">
+        <v>985474</v>
+      </c>
+      <c r="B101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" t="s">
+        <v>143</v>
+      </c>
+      <c r="F101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G101" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" t="s">
+        <v>157</v>
+      </c>
+      <c r="I101" t="s">
+        <v>167</v>
+      </c>
+      <c r="J101">
+        <v>4.33</v>
+      </c>
+      <c r="O101" t="s">
+        <v>201</v>
+      </c>
+      <c r="P101" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>45774.60076377315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102">
+        <v>985473</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" t="s">
+        <v>142</v>
+      </c>
+      <c r="F102" t="s">
+        <v>142</v>
+      </c>
+      <c r="G102" t="s">
+        <v>150</v>
+      </c>
+      <c r="H102" t="s">
+        <v>157</v>
+      </c>
+      <c r="I102" t="s">
+        <v>167</v>
+      </c>
+      <c r="N102" t="s">
+        <v>189</v>
+      </c>
+      <c r="O102" t="s">
+        <v>203</v>
+      </c>
+      <c r="P102" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>45774.60076377315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103">
+        <v>985472</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" t="s">
+        <v>142</v>
+      </c>
+      <c r="F103" t="s">
+        <v>142</v>
+      </c>
+      <c r="G103" t="s">
+        <v>148</v>
+      </c>
+      <c r="H103" t="s">
+        <v>158</v>
+      </c>
+      <c r="I103" t="s">
+        <v>167</v>
+      </c>
+      <c r="J103">
+        <v>3.18</v>
+      </c>
+      <c r="K103">
+        <v>326</v>
+      </c>
+      <c r="L103">
+        <v>156</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>190</v>
+      </c>
+      <c r="O103" t="s">
+        <v>202</v>
+      </c>
+      <c r="P103" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>45774.60076377315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104">
+        <v>985471</v>
+      </c>
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" t="s">
+        <v>144</v>
+      </c>
+      <c r="F104" t="s">
+        <v>144</v>
+      </c>
+      <c r="G104" t="s">
+        <v>148</v>
+      </c>
+      <c r="H104" t="s">
+        <v>164</v>
+      </c>
+      <c r="I104" t="s">
+        <v>167</v>
+      </c>
+      <c r="N104" t="s">
+        <v>191</v>
+      </c>
+      <c r="O104" t="s">
+        <v>202</v>
+      </c>
+      <c r="P104" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>45774.60127538195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105">
+        <v>985470</v>
+      </c>
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" t="s">
+        <v>87</v>
+      </c>
+      <c r="D105" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" t="s">
+        <v>142</v>
+      </c>
+      <c r="F105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G105" t="s">
+        <v>148</v>
+      </c>
+      <c r="H105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I105" t="s">
+        <v>167</v>
+      </c>
+      <c r="J105">
+        <v>3.86</v>
+      </c>
+      <c r="N105" t="s">
+        <v>192</v>
+      </c>
+      <c r="O105" t="s">
+        <v>202</v>
+      </c>
+      <c r="P105" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>45774.60127538195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106">
+        <v>985466</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" t="s">
+        <v>142</v>
+      </c>
+      <c r="G106" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" t="s">
+        <v>157</v>
+      </c>
+      <c r="I106" t="s">
+        <v>167</v>
+      </c>
+      <c r="J106">
+        <v>3.2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>193</v>
+      </c>
+      <c r="O106" t="s">
+        <v>201</v>
+      </c>
+      <c r="P106" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>45774.60176788195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107">
+        <v>985447</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" t="s">
+        <v>143</v>
+      </c>
+      <c r="G107" t="s">
+        <v>147</v>
+      </c>
+      <c r="H107" t="s">
+        <v>158</v>
+      </c>
+      <c r="I107" t="s">
+        <v>169</v>
+      </c>
+      <c r="O107" t="s">
+        <v>201</v>
+      </c>
+      <c r="P107" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>45774.60233672454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108">
+        <v>985446</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" t="s">
+        <v>143</v>
+      </c>
+      <c r="G108" t="s">
+        <v>147</v>
+      </c>
+      <c r="H108" t="s">
+        <v>163</v>
+      </c>
+      <c r="I108" t="s">
+        <v>168</v>
+      </c>
+      <c r="N108" t="s">
+        <v>194</v>
+      </c>
+      <c r="O108" t="s">
+        <v>201</v>
+      </c>
+      <c r="P108" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>45774.60233672454</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109">
+        <v>985407</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" t="s">
+        <v>143</v>
+      </c>
+      <c r="G109" t="s">
+        <v>147</v>
+      </c>
+      <c r="H109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I109" t="s">
+        <v>170</v>
+      </c>
+      <c r="J109">
+        <v>3.9</v>
+      </c>
+      <c r="N109" t="s">
+        <v>196</v>
+      </c>
+      <c r="O109" t="s">
+        <v>201</v>
+      </c>
+      <c r="P109" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>45774.60340833334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110">
+        <v>985406</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" t="s">
+        <v>142</v>
+      </c>
+      <c r="G110" t="s">
+        <v>148</v>
+      </c>
+      <c r="H110" t="s">
+        <v>158</v>
+      </c>
+      <c r="I110" t="s">
+        <v>167</v>
+      </c>
+      <c r="J110">
+        <v>3.79</v>
+      </c>
+      <c r="O110" t="s">
+        <v>202</v>
+      </c>
+      <c r="P110" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>45774.60340833334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111">
+        <v>985405</v>
+      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" t="s">
+        <v>73</v>
+      </c>
+      <c r="D111" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" t="s">
+        <v>142</v>
+      </c>
+      <c r="F111" t="s">
+        <v>142</v>
+      </c>
+      <c r="G111" t="s">
+        <v>147</v>
+      </c>
+      <c r="H111" t="s">
+        <v>158</v>
+      </c>
+      <c r="I111" t="s">
+        <v>167</v>
+      </c>
+      <c r="J111">
+        <v>3.89</v>
+      </c>
+      <c r="N111" t="s">
+        <v>197</v>
+      </c>
+      <c r="O111" t="s">
+        <v>201</v>
+      </c>
+      <c r="P111" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>45774.60340833334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112" t="s">
+        <v>143</v>
+      </c>
+      <c r="G112" t="s">
+        <v>150</v>
+      </c>
+      <c r="H112" t="s">
+        <v>158</v>
+      </c>
+      <c r="I112" t="s">
+        <v>170</v>
+      </c>
+      <c r="O112" t="s">
+        <v>203</v>
+      </c>
+      <c r="P112" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>45774.60380436675</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" t="s">
+        <v>96</v>
+      </c>
+      <c r="D113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" t="s">
+        <v>143</v>
+      </c>
+      <c r="F113" t="s">
+        <v>143</v>
+      </c>
+      <c r="G113" t="s">
+        <v>147</v>
+      </c>
+      <c r="H113" t="s">
+        <v>158</v>
+      </c>
+      <c r="I113" t="s">
+        <v>167</v>
+      </c>
+      <c r="N113" t="s">
+        <v>198</v>
+      </c>
+      <c r="O113" t="s">
+        <v>201</v>
+      </c>
+      <c r="P113" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>45774.60380436675</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E114" t="s">
+        <v>143</v>
+      </c>
+      <c r="F114" t="s">
+        <v>143</v>
+      </c>
+      <c r="G114" t="s">
+        <v>147</v>
+      </c>
+      <c r="H114" t="s">
+        <v>158</v>
+      </c>
+      <c r="I114" t="s">
+        <v>167</v>
+      </c>
+      <c r="J114">
+        <v>3.97</v>
+      </c>
+      <c r="O114" t="s">
+        <v>201</v>
+      </c>
+      <c r="P114" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>45774.60380436675</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" t="s">
+        <v>143</v>
+      </c>
+      <c r="G115" t="s">
+        <v>147</v>
+      </c>
+      <c r="H115" t="s">
+        <v>158</v>
+      </c>
+      <c r="I115" t="s">
+        <v>167</v>
+      </c>
+      <c r="J115">
+        <v>3.86</v>
+      </c>
+      <c r="N115" t="s">
+        <v>199</v>
+      </c>
+      <c r="O115" t="s">
+        <v>201</v>
+      </c>
+      <c r="P115" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>45774.60380436675</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" t="s">
+        <v>143</v>
+      </c>
+      <c r="F116" t="s">
+        <v>143</v>
+      </c>
+      <c r="G116" t="s">
+        <v>148</v>
+      </c>
+      <c r="H116" t="s">
+        <v>166</v>
+      </c>
+      <c r="I116" t="s">
+        <v>167</v>
+      </c>
+      <c r="J116">
+        <v>3.57</v>
+      </c>
+      <c r="K116">
+        <v>318</v>
+      </c>
+      <c r="N116" t="s">
+        <v>200</v>
+      </c>
+      <c r="O116" t="s">
+        <v>202</v>
+      </c>
+      <c r="P116" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>45774.60380436675</v>
       </c>
     </row>
   </sheetData>

--- a/scraped_profiles.xlsx
+++ b/scraped_profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="234">
   <si>
     <t>ID</t>
   </si>
@@ -67,19 +67,7 @@
     <t>Scraped Timestamp</t>
   </si>
   <si>
-    <t>985387</t>
-  </si>
-  <si>
-    <t>985386</t>
-  </si>
-  <si>
-    <t>985385</t>
-  </si>
-  <si>
-    <t>985384</t>
-  </si>
-  <si>
-    <t>985383</t>
+    <t>985532</t>
   </si>
   <si>
     <t>40%</t>
@@ -175,6 +163,12 @@
     <t>44%</t>
   </si>
   <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
     <t>Columbia University</t>
   </si>
   <si>
@@ -316,6 +310,21 @@
     <t>Florida State University</t>
   </si>
   <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>California State University, Sacramento</t>
+  </si>
+  <si>
+    <t>West Virginia University</t>
+  </si>
+  <si>
+    <t>University of Nottingham</t>
+  </si>
+  <si>
     <t>Electrical Engineering</t>
   </si>
   <si>
@@ -442,6 +451,15 @@
     <t>Biostatistics</t>
   </si>
   <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Educational Leadership and Policy</t>
+  </si>
+  <si>
+    <t>Neuroscience</t>
+  </si>
+  <si>
     <t>Masters</t>
   </si>
   <si>
@@ -517,6 +535,12 @@
     <t>11/04/2025</t>
   </si>
   <si>
+    <t>01/04/2024</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
     <t>via E-mail</t>
   </si>
   <si>
@@ -619,6 +643,18 @@
     <t>Late decision. No funding, admitted as a self-supported student...</t>
   </si>
   <si>
+    <t>Was previously an undergrad at UB in same program. Got a TA assitantship to cover all costs</t>
+  </si>
+  <si>
+    <t>One of the professors interviewed me whose research direction aligns with my current research, which actually made me confident to apply here. I even met him in person at IMECE 2024. I knew it would be hard to get in here because there are so few seats (not because your profile isn't good/competitive enough.)</t>
+  </si>
+  <si>
+    <t>No funding</t>
+  </si>
+  <si>
+    <t>Applied first as a phd student then was reached out to to apply for the masters program. Accepted same day i got my offer, so excited</t>
+  </si>
+  <si>
     <t>Rejection</t>
   </si>
   <si>
@@ -674,6 +710,12 @@
   </si>
   <si>
     <t>Apr 11</t>
+  </si>
+  <si>
+    <t>Apr 01</t>
+  </si>
+  <si>
+    <t>Apr 22</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,37 +1141,37 @@
         <v>985546</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="O2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q2" s="2">
         <v>45774.56926642361</v>
@@ -1140,34 +1182,34 @@
         <v>985545</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O3" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q3" s="2">
         <v>45774.56926642361</v>
@@ -1178,40 +1220,40 @@
         <v>985544</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J4">
         <v>3.98</v>
       </c>
       <c r="N4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="O4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="2">
         <v>45774.56926642361</v>
@@ -1222,37 +1264,37 @@
         <v>985543</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="O5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="2">
         <v>45774.56926642361</v>
@@ -1263,37 +1305,37 @@
         <v>985542</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J6">
         <v>3.84</v>
       </c>
       <c r="O6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="2">
         <v>45774.56926642361</v>
@@ -1304,34 +1346,34 @@
         <v>985541</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="2">
         <v>45774.56926642361</v>
@@ -1342,37 +1384,37 @@
         <v>985546</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="O8" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="2">
         <v>45774.5775835301</v>
@@ -1383,34 +1425,34 @@
         <v>985545</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O9" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q9" s="2">
         <v>45774.5775835301</v>
@@ -1421,40 +1463,40 @@
         <v>985544</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J10">
         <v>3.98</v>
       </c>
       <c r="N10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="O10" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="2">
         <v>45774.5775835301</v>
@@ -1465,37 +1507,37 @@
         <v>985543</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="O11" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="2">
         <v>45774.5775835301</v>
@@ -1506,37 +1548,37 @@
         <v>985542</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J12">
         <v>3.84</v>
       </c>
       <c r="O12" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="2">
         <v>45774.5775835301</v>
@@ -1547,34 +1589,34 @@
         <v>985541</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O13" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="2">
         <v>45774.5775835301</v>
@@ -1585,37 +1627,37 @@
         <v>985546</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="O14" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="2">
         <v>45774.58077224537</v>
@@ -1626,34 +1668,34 @@
         <v>985545</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q15" s="2">
         <v>45774.58077224537</v>
@@ -1664,40 +1706,40 @@
         <v>985544</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J16">
         <v>3.98</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="2">
         <v>45774.58077224537</v>
@@ -1708,37 +1750,37 @@
         <v>985543</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="2">
         <v>45774.58077224537</v>
@@ -1749,37 +1791,37 @@
         <v>985542</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J18">
         <v>3.84</v>
       </c>
       <c r="O18" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="2">
         <v>45774.58077224537</v>
@@ -1790,34 +1832,34 @@
         <v>985541</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="2">
         <v>45774.58121126157</v>
@@ -1828,34 +1870,34 @@
         <v>985506</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="2">
         <v>45774.58201672454</v>
@@ -1866,34 +1908,34 @@
         <v>985505</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="2">
         <v>45774.58201672454</v>
@@ -1904,34 +1946,34 @@
         <v>985504</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="2">
         <v>45774.58201672454</v>
@@ -1942,37 +1984,37 @@
         <v>985503</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O23" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="2">
         <v>45774.58201672454</v>
@@ -1983,40 +2025,40 @@
         <v>985502</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J24">
         <v>3.76</v>
       </c>
       <c r="N24" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="2">
         <v>45774.58201672454</v>
@@ -2027,40 +2069,40 @@
         <v>985501</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J25">
         <v>3.37</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="2">
         <v>45774.58234871528</v>
@@ -2071,28 +2113,28 @@
         <v>985500</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I26" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J26">
         <v>3.63</v>
@@ -2107,10 +2149,10 @@
         <v>4.5</v>
       </c>
       <c r="O26" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="2">
         <v>45774.58234871528</v>
@@ -2121,37 +2163,37 @@
         <v>985499</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J27">
         <v>3.16</v>
       </c>
       <c r="O27" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q27" s="2">
         <v>45774.58234871528</v>
@@ -2162,40 +2204,40 @@
         <v>985498</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J28">
         <v>3.55</v>
       </c>
       <c r="N28" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O28" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q28" s="2">
         <v>45774.58234871528</v>
@@ -2206,40 +2248,40 @@
         <v>985497</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J29">
         <v>3.9</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="2">
         <v>45774.58234871528</v>
@@ -2250,37 +2292,37 @@
         <v>985496</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I30" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="O30" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="2">
         <v>45774.58268099537</v>
@@ -2291,37 +2333,37 @@
         <v>985495</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H31" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J31">
         <v>3.74</v>
       </c>
       <c r="O31" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="2">
         <v>45774.58268099537</v>
@@ -2332,28 +2374,28 @@
         <v>985494</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I32" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J32">
         <v>3.52</v>
@@ -2368,13 +2410,13 @@
         <v>4.5</v>
       </c>
       <c r="N32" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O32" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="2">
         <v>45774.58268099537</v>
@@ -2385,40 +2427,40 @@
         <v>985493</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I33" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J33">
         <v>3.67</v>
       </c>
       <c r="N33" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="O33" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q33" s="2">
         <v>45774.58268099537</v>
@@ -2429,37 +2471,37 @@
         <v>985492</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N34" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="O34" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="2">
         <v>45774.58268099537</v>
@@ -2470,34 +2512,34 @@
         <v>985491</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O35" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="2">
         <v>45774.58301372685</v>
@@ -2508,34 +2550,34 @@
         <v>985490</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O36" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="2">
         <v>45774.58301372685</v>
@@ -2546,37 +2588,37 @@
         <v>985489</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H37" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J37">
         <v>3.4</v>
       </c>
       <c r="O37" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="2">
         <v>45774.58301372685</v>
@@ -2587,37 +2629,37 @@
         <v>985488</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H38" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N38" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O38" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q38" s="2">
         <v>45774.58301372685</v>
@@ -2628,34 +2670,34 @@
         <v>985487</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O39" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q39" s="2">
         <v>45774.58301372685</v>
@@ -2666,37 +2708,37 @@
         <v>985486</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J40">
         <v>3.86</v>
       </c>
       <c r="O40" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q40" s="2">
         <v>45774.5833975463</v>
@@ -2707,34 +2749,34 @@
         <v>985485</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O41" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="Q41" s="2">
         <v>45774.5833975463</v>
@@ -2745,34 +2787,34 @@
         <v>985484</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I42" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O42" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q42" s="2">
         <v>45774.5833975463</v>
@@ -2783,37 +2825,37 @@
         <v>985483</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G43" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I43" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N43" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O43" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q43" s="2">
         <v>45774.5833975463</v>
@@ -2824,34 +2866,34 @@
         <v>985482</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I44" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O44" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q44" s="2">
         <v>45774.5833975463</v>
@@ -2862,40 +2904,40 @@
         <v>985481</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G45" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H45" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J45">
         <v>3.13</v>
       </c>
       <c r="N45" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="O45" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Q45" s="2">
         <v>45774.58372594907</v>
@@ -2906,40 +2948,40 @@
         <v>985480</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G46" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H46" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J46">
         <v>3.8</v>
       </c>
       <c r="N46" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="O46" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q46" s="2">
         <v>45774.58372594907</v>
@@ -2950,40 +2992,40 @@
         <v>985479</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I47" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J47">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O47" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q47" s="2">
         <v>45774.58372594907</v>
@@ -2994,34 +3036,34 @@
         <v>985478</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I48" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O48" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q48" s="2">
         <v>45774.58372594907</v>
@@ -3032,40 +3074,40 @@
         <v>985477</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H49" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I49" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J49">
         <v>3.65</v>
       </c>
       <c r="N49" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="O49" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q49" s="2">
         <v>45774.58372594907</v>
@@ -3076,37 +3118,37 @@
         <v>985476</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J50">
         <v>3.7</v>
       </c>
       <c r="O50" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q50" s="2">
         <v>45774.58406451389</v>
@@ -3117,34 +3159,34 @@
         <v>985475</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O51" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="Q51" s="2">
         <v>45774.58406451389</v>
@@ -3155,37 +3197,37 @@
         <v>985474</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H52" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J52">
         <v>4.33</v>
       </c>
       <c r="O52" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q52" s="2">
         <v>45774.58406451389</v>
@@ -3196,37 +3238,37 @@
         <v>985473</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G53" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H53" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N53" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="O53" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q53" s="2">
         <v>45774.58406451389</v>
@@ -3237,28 +3279,28 @@
         <v>985472</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F54" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H54" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I54" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J54">
         <v>3.18</v>
@@ -3273,13 +3315,13 @@
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="O54" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q54" s="2">
         <v>45774.58406451389</v>
@@ -3290,37 +3332,37 @@
         <v>985471</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F55" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H55" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N55" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O55" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="Q55" s="2">
         <v>45774.58457131944</v>
@@ -3331,40 +3373,40 @@
         <v>985470</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F56" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G56" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I56" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J56">
         <v>3.86</v>
       </c>
       <c r="N56" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O56" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q56" s="2">
         <v>45774.58457131944</v>
@@ -3375,40 +3417,40 @@
         <v>985466</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H57" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I57" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J57">
         <v>3.2</v>
       </c>
       <c r="N57" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O57" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q57" s="2">
         <v>45774.5850725463</v>
@@ -3419,37 +3461,37 @@
         <v>985446</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F58" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H58" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I58" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="N58" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="O58" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="Q58" s="2">
         <v>45774.58556559028</v>
@@ -3460,37 +3502,37 @@
         <v>985426</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F59" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G59" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H59" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I59" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J59">
         <v>3.52</v>
       </c>
       <c r="O59" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q59" s="2">
         <v>45774.58627079861</v>
@@ -3501,28 +3543,28 @@
         <v>985425</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F60" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G60" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J60">
         <v>3.3</v>
@@ -3531,10 +3573,10 @@
         <v>315</v>
       </c>
       <c r="O60" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q60" s="2">
         <v>45774.58627079861</v>
@@ -3545,28 +3587,28 @@
         <v>985424</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H61" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I61" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J61">
         <v>3.3</v>
@@ -3575,10 +3617,10 @@
         <v>315</v>
       </c>
       <c r="O61" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="Q61" s="2">
         <v>45774.58627079861</v>
@@ -3589,28 +3631,28 @@
         <v>985423</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F62" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H62" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I62" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="J62">
         <v>3.84</v>
@@ -3619,13 +3661,13 @@
         <v>318</v>
       </c>
       <c r="N62" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="O62" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q62" s="2">
         <v>45774.58627079861</v>
@@ -3636,37 +3678,37 @@
         <v>985546</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F63" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G63" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H63" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I63" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N63" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="O63" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q63" s="2">
         <v>45774.59742660879</v>
@@ -3677,34 +3719,34 @@
         <v>985545</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G64" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H64" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O64" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q64" s="2">
         <v>45774.59742660879</v>
@@ -3715,40 +3757,40 @@
         <v>985544</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F65" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H65" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I65" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J65">
         <v>3.98</v>
       </c>
       <c r="N65" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="O65" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="Q65" s="2">
         <v>45774.59742660879</v>
@@ -3759,37 +3801,37 @@
         <v>985543</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H66" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I66" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N66" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="O66" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q66" s="2">
         <v>45774.59742660879</v>
@@ -3800,37 +3842,37 @@
         <v>985542</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H67" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I67" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J67">
         <v>3.84</v>
       </c>
       <c r="O67" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q67" s="2">
         <v>45774.59742660879</v>
@@ -3841,34 +3883,34 @@
         <v>985541</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H68" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I68" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O68" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q68" s="2">
         <v>45774.59786210648</v>
@@ -3879,34 +3921,34 @@
         <v>985506</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F69" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G69" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H69" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I69" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O69" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q69" s="2">
         <v>45774.59869635417</v>
@@ -3917,34 +3959,34 @@
         <v>985505</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H70" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I70" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O70" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q70" s="2">
         <v>45774.59869635417</v>
@@ -3955,34 +3997,34 @@
         <v>985504</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G71" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H71" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I71" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O71" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q71" s="2">
         <v>45774.59869635417</v>
@@ -3993,37 +4035,37 @@
         <v>985503</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G72" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H72" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I72" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N72" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O72" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q72" s="2">
         <v>45774.59869635417</v>
@@ -4034,40 +4076,40 @@
         <v>985502</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H73" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I73" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J73">
         <v>3.76</v>
       </c>
       <c r="N73" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="O73" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Q73" s="2">
         <v>45774.59869635417</v>
@@ -4078,40 +4120,40 @@
         <v>985501</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G74" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H74" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I74" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J74">
         <v>3.37</v>
       </c>
       <c r="N74" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O74" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q74" s="2">
         <v>45774.59903528935</v>
@@ -4122,28 +4164,28 @@
         <v>985500</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G75" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I75" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J75">
         <v>3.63</v>
@@ -4158,10 +4200,10 @@
         <v>4.5</v>
       </c>
       <c r="O75" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q75" s="2">
         <v>45774.59903528935</v>
@@ -4172,37 +4214,37 @@
         <v>985499</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H76" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I76" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J76">
         <v>3.16</v>
       </c>
       <c r="O76" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q76" s="2">
         <v>45774.59903528935</v>
@@ -4213,40 +4255,40 @@
         <v>985498</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H77" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J77">
         <v>3.55</v>
       </c>
       <c r="N77" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O77" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q77" s="2">
         <v>45774.59903528935</v>
@@ -4257,40 +4299,40 @@
         <v>985497</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H78" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I78" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J78">
         <v>3.9</v>
       </c>
       <c r="N78" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O78" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q78" s="2">
         <v>45774.59903528935</v>
@@ -4301,37 +4343,37 @@
         <v>985496</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G79" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I79" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="N79" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="O79" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q79" s="2">
         <v>45774.59936824074</v>
@@ -4342,37 +4384,37 @@
         <v>985495</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G80" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I80" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J80">
         <v>3.74</v>
       </c>
       <c r="O80" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q80" s="2">
         <v>45774.59936824074</v>
@@ -4383,28 +4425,28 @@
         <v>985494</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G81" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H81" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I81" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J81">
         <v>3.52</v>
@@ -4419,13 +4461,13 @@
         <v>4.5</v>
       </c>
       <c r="N81" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O81" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q81" s="2">
         <v>45774.59936824074</v>
@@ -4436,40 +4478,40 @@
         <v>985493</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H82" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I82" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J82">
         <v>3.67</v>
       </c>
       <c r="N82" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="O82" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q82" s="2">
         <v>45774.59936824074</v>
@@ -4480,37 +4522,37 @@
         <v>985492</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G83" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H83" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I83" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N83" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="O83" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q83" s="2">
         <v>45774.59936824074</v>
@@ -4521,34 +4563,34 @@
         <v>985491</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H84" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I84" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O84" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q84" s="2">
         <v>45774.59970517361</v>
@@ -4559,34 +4601,34 @@
         <v>985490</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F85" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G85" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H85" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O85" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q85" s="2">
         <v>45774.59970517361</v>
@@ -4597,37 +4639,37 @@
         <v>985489</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F86" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H86" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J86">
         <v>3.4</v>
       </c>
       <c r="O86" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q86" s="2">
         <v>45774.59970517361</v>
@@ -4638,37 +4680,37 @@
         <v>985488</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F87" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G87" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H87" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I87" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N87" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O87" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q87" s="2">
         <v>45774.59970517361</v>
@@ -4679,34 +4721,34 @@
         <v>985487</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F88" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G88" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I88" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O88" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q88" s="2">
         <v>45774.59970517361</v>
@@ -4717,37 +4759,37 @@
         <v>985486</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F89" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G89" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H89" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I89" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J89">
         <v>3.86</v>
       </c>
       <c r="O89" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q89" s="2">
         <v>45774.60010517361</v>
@@ -4758,34 +4800,34 @@
         <v>985485</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F90" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G90" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H90" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I90" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O90" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="Q90" s="2">
         <v>45774.60010517361</v>
@@ -4796,34 +4838,34 @@
         <v>985484</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F91" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G91" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H91" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I91" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O91" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q91" s="2">
         <v>45774.60010517361</v>
@@ -4834,37 +4876,37 @@
         <v>985483</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F92" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G92" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H92" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N92" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O92" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q92" s="2">
         <v>45774.60010517361</v>
@@ -4875,34 +4917,34 @@
         <v>985482</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F93" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G93" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H93" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I93" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O93" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q93" s="2">
         <v>45774.60010517361</v>
@@ -4913,40 +4955,40 @@
         <v>985481</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E94" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F94" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G94" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H94" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J94">
         <v>3.13</v>
       </c>
       <c r="N94" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="O94" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Q94" s="2">
         <v>45774.60043842593</v>
@@ -4957,40 +4999,40 @@
         <v>985480</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F95" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G95" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H95" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I95" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J95">
         <v>3.8</v>
       </c>
       <c r="N95" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="O95" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q95" s="2">
         <v>45774.60043842593</v>
@@ -5001,40 +5043,40 @@
         <v>985479</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D96" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E96" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F96" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G96" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H96" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I96" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J96">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O96" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q96" s="2">
         <v>45774.60043842593</v>
@@ -5045,34 +5087,34 @@
         <v>985478</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D97" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F97" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G97" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H97" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I97" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O97" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q97" s="2">
         <v>45774.60043842593</v>
@@ -5083,40 +5125,40 @@
         <v>985477</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F98" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H98" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I98" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J98">
         <v>3.65</v>
       </c>
       <c r="N98" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="O98" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q98" s="2">
         <v>45774.60043842593</v>
@@ -5127,37 +5169,37 @@
         <v>985476</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G99" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H99" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I99" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J99">
         <v>3.7</v>
       </c>
       <c r="O99" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q99" s="2">
         <v>45774.60076377315</v>
@@ -5168,34 +5210,34 @@
         <v>985475</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E100" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G100" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H100" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I100" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O100" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="Q100" s="2">
         <v>45774.60076377315</v>
@@ -5206,37 +5248,37 @@
         <v>985474</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D101" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G101" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H101" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I101" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J101">
         <v>4.33</v>
       </c>
       <c r="O101" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q101" s="2">
         <v>45774.60076377315</v>
@@ -5247,37 +5289,37 @@
         <v>985473</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F102" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G102" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H102" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I102" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N102" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="O102" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P102" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q102" s="2">
         <v>45774.60076377315</v>
@@ -5288,28 +5330,28 @@
         <v>985472</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E103" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F103" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G103" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H103" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I103" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J103">
         <v>3.18</v>
@@ -5324,13 +5366,13 @@
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="O103" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q103" s="2">
         <v>45774.60076377315</v>
@@ -5341,37 +5383,37 @@
         <v>985471</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F104" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G104" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H104" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I104" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N104" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="Q104" s="2">
         <v>45774.60127538195</v>
@@ -5382,40 +5424,40 @@
         <v>985470</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D105" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E105" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F105" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G105" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H105" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J105">
         <v>3.86</v>
       </c>
       <c r="N105" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O105" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P105" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q105" s="2">
         <v>45774.60127538195</v>
@@ -5426,40 +5468,40 @@
         <v>985466</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D106" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E106" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G106" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H106" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I106" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J106">
         <v>3.2</v>
       </c>
       <c r="N106" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O106" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P106" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q106" s="2">
         <v>45774.60176788195</v>
@@ -5470,34 +5512,34 @@
         <v>985447</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E107" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F107" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H107" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I107" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="O107" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q107" s="2">
         <v>45774.60233672454</v>
@@ -5508,37 +5550,37 @@
         <v>985446</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E108" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H108" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I108" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="N108" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="O108" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="Q108" s="2">
         <v>45774.60233672454</v>
@@ -5549,40 +5591,40 @@
         <v>985407</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D109" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E109" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F109" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H109" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I109" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J109">
         <v>3.9</v>
       </c>
       <c r="N109" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="O109" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P109" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q109" s="2">
         <v>45774.60340833334</v>
@@ -5593,37 +5635,37 @@
         <v>985406</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D110" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E110" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G110" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H110" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I110" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J110">
         <v>3.79</v>
       </c>
       <c r="O110" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P110" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q110" s="2">
         <v>45774.60340833334</v>
@@ -5634,236 +5676,236 @@
         <v>985405</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D111" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E111" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G111" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H111" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I111" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J111">
         <v>3.89</v>
       </c>
       <c r="N111" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="O111" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P111" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q111" s="2">
         <v>45774.60340833334</v>
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" t="s">
-        <v>17</v>
+      <c r="A112">
+        <v>985387</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G112" t="s">
+        <v>156</v>
+      </c>
+      <c r="H112" t="s">
+        <v>164</v>
+      </c>
+      <c r="I112" t="s">
+        <v>178</v>
+      </c>
+      <c r="O112" t="s">
+        <v>215</v>
+      </c>
+      <c r="P112" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>45774.60380436343</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113">
+        <v>985386</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" t="s">
+        <v>149</v>
+      </c>
+      <c r="F113" t="s">
+        <v>149</v>
+      </c>
+      <c r="G113" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" t="s">
+        <v>164</v>
+      </c>
+      <c r="I113" t="s">
+        <v>175</v>
+      </c>
+      <c r="N113" t="s">
+        <v>206</v>
+      </c>
+      <c r="O113" t="s">
+        <v>213</v>
+      </c>
+      <c r="P113" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>45774.60380436343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114">
+        <v>985385</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" t="s">
         <v>95</v>
       </c>
-      <c r="D112" t="s">
-        <v>116</v>
-      </c>
-      <c r="E112" t="s">
-        <v>143</v>
-      </c>
-      <c r="F112" t="s">
-        <v>143</v>
-      </c>
-      <c r="G112" t="s">
-        <v>150</v>
-      </c>
-      <c r="H112" t="s">
-        <v>158</v>
-      </c>
-      <c r="I112" t="s">
-        <v>170</v>
-      </c>
-      <c r="O112" t="s">
-        <v>203</v>
-      </c>
-      <c r="P112" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q112" s="2">
-        <v>45774.60380436675</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17">
-      <c r="A113" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" t="s">
-        <v>96</v>
-      </c>
-      <c r="D113" t="s">
-        <v>127</v>
-      </c>
-      <c r="E113" t="s">
-        <v>143</v>
-      </c>
-      <c r="F113" t="s">
-        <v>143</v>
-      </c>
-      <c r="G113" t="s">
-        <v>147</v>
-      </c>
-      <c r="H113" t="s">
-        <v>158</v>
-      </c>
-      <c r="I113" t="s">
-        <v>167</v>
-      </c>
-      <c r="N113" t="s">
-        <v>198</v>
-      </c>
-      <c r="O113" t="s">
-        <v>201</v>
-      </c>
-      <c r="P113" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q113" s="2">
-        <v>45774.60380436675</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17">
-      <c r="A114" t="s">
-        <v>19</v>
-      </c>
-      <c r="B114" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" t="s">
-        <v>97</v>
-      </c>
       <c r="D114" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E114" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F114" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G114" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H114" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I114" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J114">
         <v>3.97</v>
       </c>
       <c r="O114" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P114" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q114" s="2">
-        <v>45774.60380436675</v>
+        <v>45774.60380436343</v>
       </c>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" t="s">
-        <v>20</v>
+      <c r="A115">
+        <v>985384</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D115" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E115" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H115" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I115" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J115">
         <v>3.86</v>
       </c>
       <c r="N115" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="O115" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P115" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q115" s="2">
-        <v>45774.60380436675</v>
+        <v>45774.60380436343</v>
       </c>
     </row>
     <row r="116" spans="1:17">
-      <c r="A116" t="s">
-        <v>21</v>
+      <c r="A116">
+        <v>985383</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D116" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F116" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G116" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H116" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I116" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J116">
         <v>3.57</v>
@@ -5872,16 +5914,561 @@
         <v>318</v>
       </c>
       <c r="N116" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O116" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P116" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>45774.60380436343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117">
+        <v>985547</v>
+      </c>
+      <c r="B117" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E117" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" t="s">
+        <v>148</v>
+      </c>
+      <c r="G117" t="s">
+        <v>154</v>
+      </c>
+      <c r="H117" t="s">
+        <v>173</v>
+      </c>
+      <c r="I117" t="s">
+        <v>175</v>
+      </c>
+      <c r="J117">
+        <v>3.4</v>
+      </c>
+      <c r="N117" t="s">
+        <v>209</v>
+      </c>
+      <c r="O117" t="s">
+        <v>214</v>
+      </c>
+      <c r="P117" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>45774.60717304398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118">
+        <v>985546</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" t="s">
+        <v>103</v>
+      </c>
+      <c r="E118" t="s">
+        <v>148</v>
+      </c>
+      <c r="F118" t="s">
+        <v>148</v>
+      </c>
+      <c r="G118" t="s">
+        <v>153</v>
+      </c>
+      <c r="H118" t="s">
+        <v>157</v>
+      </c>
+      <c r="I118" t="s">
+        <v>175</v>
+      </c>
+      <c r="N118" t="s">
+        <v>179</v>
+      </c>
+      <c r="O118" t="s">
+        <v>213</v>
+      </c>
+      <c r="P118" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>45774.60717304398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119">
+        <v>985545</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" t="s">
+        <v>149</v>
+      </c>
+      <c r="F119" t="s">
+        <v>149</v>
+      </c>
+      <c r="G119" t="s">
+        <v>153</v>
+      </c>
+      <c r="H119" t="s">
+        <v>157</v>
+      </c>
+      <c r="I119" t="s">
+        <v>175</v>
+      </c>
+      <c r="O119" t="s">
+        <v>213</v>
+      </c>
+      <c r="P119" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>45774.60717304398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120">
+        <v>985544</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" t="s">
+        <v>150</v>
+      </c>
+      <c r="F120" t="s">
+        <v>150</v>
+      </c>
+      <c r="G120" t="s">
+        <v>153</v>
+      </c>
+      <c r="H120" t="s">
+        <v>158</v>
+      </c>
+      <c r="I120" t="s">
+        <v>175</v>
+      </c>
+      <c r="J120">
+        <v>3.98</v>
+      </c>
+      <c r="N120" t="s">
+        <v>180</v>
+      </c>
+      <c r="O120" t="s">
+        <v>213</v>
+      </c>
+      <c r="P120" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>45774.60717304398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121">
+        <v>985543</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" t="s">
+        <v>106</v>
+      </c>
+      <c r="E121" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" t="s">
+        <v>149</v>
+      </c>
+      <c r="G121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H121" t="s">
+        <v>159</v>
+      </c>
+      <c r="I121" t="s">
+        <v>175</v>
+      </c>
+      <c r="N121" t="s">
+        <v>181</v>
+      </c>
+      <c r="O121" t="s">
+        <v>214</v>
+      </c>
+      <c r="P121" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>45774.60717304398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122">
+        <v>985542</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" t="s">
+        <v>151</v>
+      </c>
+      <c r="F122" t="s">
+        <v>151</v>
+      </c>
+      <c r="G122" t="s">
+        <v>154</v>
+      </c>
+      <c r="H122" t="s">
+        <v>160</v>
+      </c>
+      <c r="I122" t="s">
+        <v>175</v>
+      </c>
+      <c r="J122">
+        <v>3.84</v>
+      </c>
+      <c r="O122" t="s">
+        <v>214</v>
+      </c>
+      <c r="P122" t="s">
         <v>219</v>
       </c>
-      <c r="Q116" s="2">
-        <v>45774.60380436675</v>
+      <c r="Q122" s="2">
+        <v>45774.60824234954</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123">
+        <v>985541</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" t="s">
+        <v>149</v>
+      </c>
+      <c r="F123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G123" t="s">
+        <v>153</v>
+      </c>
+      <c r="H123" t="s">
+        <v>159</v>
+      </c>
+      <c r="I123" t="s">
+        <v>175</v>
+      </c>
+      <c r="O123" t="s">
+        <v>213</v>
+      </c>
+      <c r="P123" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>45774.60824234954</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124">
+        <v>985539</v>
+      </c>
+      <c r="B124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" t="s">
+        <v>119</v>
+      </c>
+      <c r="E124" t="s">
+        <v>149</v>
+      </c>
+      <c r="F124" t="s">
+        <v>149</v>
+      </c>
+      <c r="G124" t="s">
+        <v>153</v>
+      </c>
+      <c r="H124" t="s">
+        <v>163</v>
+      </c>
+      <c r="I124" t="s">
+        <v>175</v>
+      </c>
+      <c r="N124" t="s">
+        <v>210</v>
+      </c>
+      <c r="O124" t="s">
+        <v>213</v>
+      </c>
+      <c r="P124" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>45774.60824234954</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125">
+        <v>985536</v>
+      </c>
+      <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" t="s">
+        <v>148</v>
+      </c>
+      <c r="F125" t="s">
+        <v>148</v>
+      </c>
+      <c r="G125" t="s">
+        <v>154</v>
+      </c>
+      <c r="H125" t="s">
+        <v>159</v>
+      </c>
+      <c r="I125" t="s">
+        <v>175</v>
+      </c>
+      <c r="J125">
+        <v>4</v>
+      </c>
+      <c r="K125">
+        <v>336</v>
+      </c>
+      <c r="L125">
+        <v>166</v>
+      </c>
+      <c r="M125">
+        <v>4.5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>214</v>
+      </c>
+      <c r="P125" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>45774.60824234954</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126">
+        <v>985535</v>
+      </c>
+      <c r="B126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" t="s">
+        <v>146</v>
+      </c>
+      <c r="E126" t="s">
+        <v>148</v>
+      </c>
+      <c r="F126" t="s">
+        <v>148</v>
+      </c>
+      <c r="G126" t="s">
+        <v>155</v>
+      </c>
+      <c r="H126" t="s">
+        <v>174</v>
+      </c>
+      <c r="I126" t="s">
+        <v>175</v>
+      </c>
+      <c r="O126" t="s">
+        <v>155</v>
+      </c>
+      <c r="P126" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>45774.60824234954</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127">
+        <v>985534</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>101</v>
+      </c>
+      <c r="D127" t="s">
+        <v>147</v>
+      </c>
+      <c r="E127" t="s">
+        <v>148</v>
+      </c>
+      <c r="F127" t="s">
+        <v>148</v>
+      </c>
+      <c r="G127" t="s">
+        <v>154</v>
+      </c>
+      <c r="H127" t="s">
+        <v>161</v>
+      </c>
+      <c r="I127" t="s">
+        <v>175</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="N127" t="s">
+        <v>211</v>
+      </c>
+      <c r="O127" t="s">
+        <v>214</v>
+      </c>
+      <c r="P127" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>45774.60824234954</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128">
+        <v>985533</v>
+      </c>
+      <c r="B128" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128" t="s">
+        <v>148</v>
+      </c>
+      <c r="F128" t="s">
+        <v>148</v>
+      </c>
+      <c r="G128" t="s">
+        <v>154</v>
+      </c>
+      <c r="H128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I128" t="s">
+        <v>177</v>
+      </c>
+      <c r="J128">
+        <v>3.5</v>
+      </c>
+      <c r="K128">
+        <v>319</v>
+      </c>
+      <c r="N128" t="s">
+        <v>212</v>
+      </c>
+      <c r="O128" t="s">
+        <v>214</v>
+      </c>
+      <c r="P128" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>45774.60824234954</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" t="s">
+        <v>102</v>
+      </c>
+      <c r="D129" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" t="s">
+        <v>149</v>
+      </c>
+      <c r="F129" t="s">
+        <v>149</v>
+      </c>
+      <c r="G129" t="s">
+        <v>154</v>
+      </c>
+      <c r="H129" t="s">
+        <v>162</v>
+      </c>
+      <c r="I129" t="s">
+        <v>175</v>
+      </c>
+      <c r="O129" t="s">
+        <v>214</v>
+      </c>
+      <c r="P129" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>45774.6083195402</v>
       </c>
     </row>
   </sheetData>
